--- a/cfs_6_0.35.xlsx
+++ b/cfs_6_0.35.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.675</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -542,7 +542,7 @@
         <v>0.556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.46</v>
+        <v>0.499</v>
       </c>
       <c r="M2" t="n">
         <v>1.607594936708861</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.709</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -619,7 +619,7 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.587</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -634,7 +634,7 @@
         <v>0.486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.419</v>
+        <v>0.457</v>
       </c>
       <c r="M4" t="n">
         <v>3.939393939393939</v>
@@ -680,7 +680,7 @@
         <v>0.417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.501</v>
+        <v>0.429</v>
       </c>
       <c r="M5" t="n">
         <v>7.583333333333333</v>
@@ -699,13 +699,13 @@
         <v>0.584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.727</v>
+        <v>0.661</v>
       </c>
       <c r="D6" t="n">
         <v>0.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.638</v>
+        <v>0.598</v>
       </c>
       <c r="F6" t="n">
         <v>0.5679999999999999</v>
@@ -751,7 +751,7 @@
         <v>0.456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.603</v>
+        <v>0.577</v>
       </c>
       <c r="F7" t="n">
         <v>0.553</v>
@@ -769,7 +769,7 @@
         <v>0.408</v>
       </c>
       <c r="K7" t="n">
-        <v>0.522</v>
+        <v>0.481</v>
       </c>
       <c r="L7" t="n">
         <v>0.46</v>
@@ -794,10 +794,10 @@
         <v>0.657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.537</v>
+        <v>0.487</v>
       </c>
       <c r="E8" t="n">
-        <v>0.64</v>
+        <v>0.596</v>
       </c>
       <c r="F8" t="n">
         <v>0.533</v>
@@ -837,13 +837,13 @@
         <v>0.631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.704</v>
+        <v>0.663</v>
       </c>
       <c r="D9" t="n">
         <v>0.513</v>
       </c>
       <c r="E9" t="n">
-        <v>0.62</v>
+        <v>0.608</v>
       </c>
       <c r="F9" t="n">
         <v>0.601</v>
@@ -895,13 +895,13 @@
         <v>0.604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.632</v>
+        <v>0.73</v>
       </c>
       <c r="H10" t="n">
         <v>0.367</v>
       </c>
       <c r="I10" t="n">
-        <v>0.546</v>
+        <v>0.544</v>
       </c>
       <c r="J10" t="n">
         <v>0.331</v>
@@ -929,7 +929,7 @@
         <v>0.6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.704</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>0.466</v>
@@ -956,7 +956,7 @@
         <v>0.505</v>
       </c>
       <c r="L11" t="n">
-        <v>0.495</v>
+        <v>0.443</v>
       </c>
       <c r="M11" t="n">
         <v>3.4</v>
@@ -1042,7 +1042,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.275</v>
+        <v>0.384</v>
       </c>
       <c r="K13" t="n">
         <v>0.458</v>
@@ -1073,7 +1073,7 @@
         <v>0.443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.632</v>
+        <v>0.578</v>
       </c>
       <c r="F14" t="n">
         <v>0.556</v>
@@ -1186,7 +1186,7 @@
         <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>0.475</v>
+        <v>0.43</v>
       </c>
       <c r="M16" t="n">
         <v>6.722222222222222</v>
@@ -1217,7 +1217,7 @@
         <v>0.573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.582</v>
+        <v>0.742</v>
       </c>
       <c r="H17" t="n">
         <v>0.361</v>
@@ -1395,7 +1395,7 @@
         <v>0.495</v>
       </c>
       <c r="E21" t="n">
-        <v>0.642</v>
+        <v>0.633</v>
       </c>
       <c r="F21" t="n">
         <v>0.654</v>
@@ -1481,7 +1481,7 @@
         <v>0.638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.721</v>
+        <v>0.671</v>
       </c>
       <c r="D23" t="n">
         <v>0.44</v>
@@ -1508,7 +1508,7 @@
         <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>0.508</v>
+        <v>0.446</v>
       </c>
       <c r="M23" t="n">
         <v>3.095238095238095</v>
@@ -1895,7 +1895,7 @@
         <v>0.673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.628</v>
+        <v>0.571</v>
       </c>
       <c r="D32" t="n">
         <v>0.426</v>
@@ -2416,7 +2416,7 @@
         <v>0.597</v>
       </c>
       <c r="H43" t="n">
-        <v>0.373</v>
+        <v>0.431</v>
       </c>
       <c r="I43" t="n">
         <v>0.547</v>
@@ -2539,7 +2539,7 @@
         <v>0.628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.649</v>
+        <v>0.628</v>
       </c>
       <c r="D46" t="n">
         <v>0.439</v>
@@ -2689,7 +2689,7 @@
         <v>0.535</v>
       </c>
       <c r="G49" t="n">
-        <v>0.533</v>
+        <v>0.599</v>
       </c>
       <c r="H49" t="n">
         <v>0.475</v>
@@ -3014,10 +3014,10 @@
         <v>0.612</v>
       </c>
       <c r="H56" t="n">
-        <v>0.376</v>
+        <v>0.434</v>
       </c>
       <c r="I56" t="n">
-        <v>0.547</v>
+        <v>0.537</v>
       </c>
       <c r="J56" t="n">
         <v>0.431</v>
@@ -3118,7 +3118,7 @@
         <v>0.471</v>
       </c>
       <c r="L58" t="n">
-        <v>0.472</v>
+        <v>0.431</v>
       </c>
       <c r="M58" t="n">
         <v>1.818181818181818</v>
@@ -3290,10 +3290,10 @@
         <v>0.512</v>
       </c>
       <c r="H62" t="n">
-        <v>0.364</v>
+        <v>0.424</v>
       </c>
       <c r="I62" t="n">
-        <v>0.532</v>
+        <v>0.591</v>
       </c>
       <c r="J62" t="n">
         <v>0.352</v>
@@ -3434,7 +3434,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>0.281</v>
+        <v>0.379</v>
       </c>
       <c r="K65" t="n">
         <v>0.45</v>
@@ -3563,13 +3563,13 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.632</v>
       </c>
       <c r="H68" t="n">
         <v>0.362</v>
       </c>
       <c r="I68" t="n">
-        <v>0.518</v>
+        <v>0.546</v>
       </c>
       <c r="J68" t="n">
         <v>0.325</v>
@@ -3600,7 +3600,7 @@
         <v>0.61</v>
       </c>
       <c r="D69" t="n">
-        <v>0.463</v>
+        <v>0.538</v>
       </c>
       <c r="E69" t="n">
         <v>0.553</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.646</v>
+        <v>0.649</v>
       </c>
       <c r="C71" t="n">
         <v>0.679</v>
@@ -3695,7 +3695,7 @@
         <v>0.446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.597</v>
+        <v>0.584</v>
       </c>
       <c r="F71" t="n">
         <v>0.601</v>
@@ -3974,13 +3974,13 @@
         <v>0.581</v>
       </c>
       <c r="F77" t="n">
-        <v>0.533</v>
+        <v>0.527</v>
       </c>
       <c r="G77" t="n">
         <v>0.669</v>
       </c>
       <c r="H77" t="n">
-        <v>0.343</v>
+        <v>0.376</v>
       </c>
       <c r="I77" t="n">
         <v>0.5639999999999999</v>
@@ -4078,7 +4078,7 @@
         <v>0.572</v>
       </c>
       <c r="J79" t="n">
-        <v>0.377</v>
+        <v>0.4</v>
       </c>
       <c r="K79" t="n">
         <v>0.448</v>
@@ -4112,7 +4112,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5</v>
+        <v>0.537</v>
       </c>
       <c r="G80" t="n">
         <v>0.658</v>
@@ -4161,7 +4161,7 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.618</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.697</v>
+        <v>0.667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.695</v>
+        <v>0.675</v>
       </c>
       <c r="D82" t="n">
         <v>0.518</v>
@@ -4308,7 +4308,7 @@
         <v>0.544</v>
       </c>
       <c r="J84" t="n">
-        <v>0.265</v>
+        <v>0.404</v>
       </c>
       <c r="K84" t="n">
         <v>0.376</v>
@@ -4431,7 +4431,7 @@
         <v>0.455</v>
       </c>
       <c r="E87" t="n">
-        <v>0.575</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F87" t="n">
         <v>0.609</v>
@@ -4440,7 +4440,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0.354</v>
+        <v>0.374</v>
       </c>
       <c r="I87" t="n">
         <v>0.538</v>
@@ -4489,7 +4489,7 @@
         <v>0.341</v>
       </c>
       <c r="I88" t="n">
-        <v>0.502</v>
+        <v>0.638</v>
       </c>
       <c r="J88" t="n">
         <v>0.279</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.671</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4584,7 +4584,7 @@
         <v>0.507</v>
       </c>
       <c r="J90" t="n">
-        <v>0.319</v>
+        <v>0.366</v>
       </c>
       <c r="K90" t="n">
         <v>0.468</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.669</v>
+        <v>0.632</v>
       </c>
       <c r="C91" t="n">
         <v>0.6</v>
@@ -4624,7 +4624,7 @@
         <v>0.626</v>
       </c>
       <c r="H91" t="n">
-        <v>0.342</v>
+        <v>0.388</v>
       </c>
       <c r="I91" t="n">
         <v>0.5629999999999999</v>
@@ -4716,7 +4716,7 @@
         <v>0.587</v>
       </c>
       <c r="H93" t="n">
-        <v>0.392</v>
+        <v>0.464</v>
       </c>
       <c r="I93" t="n">
         <v>0.524</v>
@@ -4793,7 +4793,7 @@
         <v>0.676</v>
       </c>
       <c r="C95" t="n">
-        <v>0.578</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D95" t="n">
         <v>0.483</v>
@@ -4820,7 +4820,7 @@
         <v>0.536</v>
       </c>
       <c r="L95" t="n">
-        <v>0.425</v>
+        <v>0.386</v>
       </c>
       <c r="M95" t="n">
         <v>1.380952380952381</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -4912,7 +4912,7 @@
         <v>0.407</v>
       </c>
       <c r="L97" t="n">
-        <v>0.438</v>
+        <v>0.46</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.609</v>
+        <v>0.587</v>
       </c>
       <c r="C98" t="n">
         <v>0.615</v>
@@ -4955,7 +4955,7 @@
         <v>0.337</v>
       </c>
       <c r="K98" t="n">
-        <v>0.527</v>
+        <v>0.414</v>
       </c>
       <c r="L98" t="n">
         <v>0.417</v>
@@ -4977,7 +4977,7 @@
         <v>0.635</v>
       </c>
       <c r="C99" t="n">
-        <v>0.618</v>
+        <v>0.649</v>
       </c>
       <c r="D99" t="n">
         <v>0.451</v>
@@ -4992,7 +4992,7 @@
         <v>0.632</v>
       </c>
       <c r="H99" t="n">
-        <v>0.343</v>
+        <v>0.392</v>
       </c>
       <c r="I99" t="n">
         <v>0.54</v>
@@ -5023,13 +5023,13 @@
         <v>0.584</v>
       </c>
       <c r="C100" t="n">
-        <v>0.621</v>
+        <v>0.571</v>
       </c>
       <c r="D100" t="n">
         <v>0.439</v>
       </c>
       <c r="E100" t="n">
-        <v>0.545</v>
+        <v>0.515</v>
       </c>
       <c r="F100" t="n">
         <v>0.438</v>
